--- a/gráfica.xlsx
+++ b/gráfica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\MASTER\2 cuatrimestre\COMPUTACIÓN DE ALTAS PRESTACIONES\LABORATORIO\PRACTICA FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5FBA40-A50A-4C87-B289-CC8A4D170775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD915B5-DF69-466B-A4EB-B001C5146351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC00CE1E-742C-471E-A8B6-7DD481CD5F7C}"/>
   </bookViews>
@@ -22,6 +22,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Hilos</t>
+  </si>
+  <si>
+    <t>Tiempos(s)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,6 +104,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>FSBA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1511,14 +1547,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B31AD-5737-45E0-AAED-9A5E75E729DE}">
-  <dimension ref="B4:D14"/>
+  <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
